--- a/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
+++ b/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
@@ -642,11 +642,7 @@
       <c r="F7" t="n">
         <v>127.0809505</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,11 +874,7 @@
       <c r="F15" t="n">
         <v>127.0780347</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2912,11 +2904,7 @@
       <c r="F85" t="n">
         <v>127.4160798</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3670,11 +3658,7 @@
       <c r="F111" t="n">
         <v>127.3286357</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4225,11 +4209,7 @@
       <c r="F130" t="n">
         <v>127.1910067</v>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">

--- a/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
+++ b/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
@@ -1056,7 +1056,11 @@
       <c r="F21" t="n">
         <v>127.3034113</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">

--- a/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
+++ b/1.업무/2. 출장 관리 지도 프로그램/3. 배포용 프로그램/map_data.xlsx
@@ -4113,7 +4113,11 @@
       <c r="F126" t="n">
         <v>127.1186612</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4229,11 +4233,7 @@
       <c r="F130" t="n">
         <v>127.1910067</v>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
